--- a/db/Database Design.xlsx
+++ b/db/Database Design.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\exampp\htdocs\conference\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xampp\htdocs\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>CREATE TABLE `t_admin` (</t>
   </si>
@@ -198,6 +198,24 @@
   </si>
   <si>
     <t xml:space="preserve">  `category` varchar(16) NOT NULL</t>
+  </si>
+  <si>
+    <t>web_users</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
   </si>
 </sst>
 </file>
@@ -258,13 +276,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F27"/>
+  <dimension ref="B1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,10 +578,11 @@
     <col min="4" max="4" width="53.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="55.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="18.42578125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>42</v>
       </c>
@@ -573,7 +593,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,7 +604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -595,7 +615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -606,7 +626,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -617,7 +637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -628,7 +648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -639,7 +659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -647,7 +667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -655,7 +675,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -663,7 +683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
@@ -674,7 +694,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
@@ -684,8 +704,11 @@
       <c r="F13" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
@@ -695,8 +718,11 @@
       <c r="F14" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>23</v>
       </c>
@@ -706,8 +732,11 @@
       <c r="F15" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
@@ -717,8 +746,11 @@
       <c r="F16" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
@@ -728,18 +760,24 @@
       <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F18" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F19" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
@@ -750,7 +788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>29</v>
       </c>
@@ -761,7 +799,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>30</v>
       </c>
@@ -772,7 +810,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>31</v>
       </c>
@@ -780,7 +818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>32</v>
       </c>
@@ -788,7 +826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>33</v>
       </c>
@@ -799,7 +837,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
@@ -810,7 +848,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
         <v>40</v>
       </c>

--- a/db/Database Design.xlsx
+++ b/db/Database Design.xlsx
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
